--- a/src/tournament/schedules/pool_A/schedule_retour.xlsx
+++ b/src/tournament/schedules/pool_A/schedule_retour.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -38,12 +38,8 @@
     <font>
       <name val="Arial"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <i val="1"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -66,12 +62,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00BDD7EE"/>
         <bgColor rgb="00BDD7EE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -99,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -116,16 +106,10 @@
     <xf numFmtId="165" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -493,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,8 +488,8 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
   </cols>
@@ -559,14 +543,14 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
+          <t>IFRI</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
           <t>Firesky</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>IFRI</t>
-        </is>
-      </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
           <t>3min 0s</t>
@@ -574,7 +558,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>ALLER</t>
+          <t>RETOUR</t>
         </is>
       </c>
     </row>
@@ -590,14 +574,14 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
+          <t>KACW</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
           <t>Bee Light</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>KACW</t>
-        </is>
-      </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
           <t>3min 0s</t>
@@ -605,7 +589,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>ALLER</t>
+          <t>RETOUR</t>
         </is>
       </c>
     </row>
@@ -621,14 +605,14 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>Les leaders</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>Jolych</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Les leaders</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
           <t>3min 0s</t>
@@ -636,7 +620,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>ALLER</t>
+          <t>RETOUR</t>
         </is>
       </c>
     </row>
@@ -652,14 +636,14 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
+          <t>Némésis</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
           <t>AI_MAU</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>Némésis</t>
-        </is>
-      </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
           <t>3min 0s</t>
@@ -667,7 +651,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>ALLER</t>
+          <t>RETOUR</t>
         </is>
       </c>
     </row>
@@ -683,14 +667,14 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>Firesky</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>Bee Light</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Firesky</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
           <t>3min 0s</t>
@@ -698,7 +682,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>ALLER</t>
+          <t>RETOUR</t>
         </is>
       </c>
     </row>
@@ -714,14 +698,14 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
+          <t>KACW</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
           <t>IFRI</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>KACW</t>
-        </is>
-      </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
           <t>3min 0s</t>
@@ -729,7 +713,7 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>ALLER</t>
+          <t>RETOUR</t>
         </is>
       </c>
     </row>
@@ -745,14 +729,14 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>Les leaders</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>AI_MAU</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Les leaders</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
           <t>3min 0s</t>
@@ -760,7 +744,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>ALLER</t>
+          <t>RETOUR</t>
         </is>
       </c>
     </row>
@@ -776,14 +760,14 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
+          <t>Jolych</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
           <t>Némésis</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>Jolych</t>
-        </is>
-      </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
           <t>3min 0s</t>
@@ -791,7 +775,7 @@
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>ALLER</t>
+          <t>RETOUR</t>
         </is>
       </c>
     </row>
@@ -807,14 +791,14 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>KACW</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>Firesky</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>KACW</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
           <t>3min 0s</t>
@@ -822,7 +806,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>ALLER</t>
+          <t>RETOUR</t>
         </is>
       </c>
     </row>
@@ -838,14 +822,14 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
+          <t>IFRI</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
           <t>Bee Light</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>IFRI</t>
-        </is>
-      </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
           <t>3min 0s</t>
@@ -853,7 +837,7 @@
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>ALLER</t>
+          <t>RETOUR</t>
         </is>
       </c>
     </row>
@@ -869,14 +853,14 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>Les leaders</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>Némésis</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Les leaders</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
           <t>3min 0s</t>
@@ -884,7 +868,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>ALLER</t>
+          <t>RETOUR</t>
         </is>
       </c>
     </row>
@@ -900,14 +884,14 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
+          <t>Jolych</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
           <t>AI_MAU</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>Jolych</t>
-        </is>
-      </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
           <t>3min 0s</t>
@@ -915,7 +899,7 @@
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>ALLER</t>
+          <t>RETOUR</t>
         </is>
       </c>
     </row>
@@ -931,14 +915,14 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>Némésis</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>Firesky</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Némésis</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
           <t>3min 0s</t>
@@ -946,7 +930,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>ALLER</t>
+          <t>RETOUR</t>
         </is>
       </c>
     </row>
@@ -962,390 +946,392 @@
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
+          <t>Bee Light</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
           <t>AI_MAU</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>45647.75833333333</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>45647.76041666666</v>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Les leaders</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>IFRI</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>45647.76041666666</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>45647.7625</v>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Jolych</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>KACW</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>45647.7625</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>45647.76458333333</v>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Firesky</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>AI_MAU</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>45647.76458333333</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>45647.76666666667</v>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Némésis</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>Bee Light</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>ALLER</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>PAUSE</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="n">
-        <v>45647.75833333333</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>45647.76527777778</v>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>PAUSE ENTRE PHASES</t>
-        </is>
-      </c>
-      <c r="E16" s="6" t="inlineStr"/>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>10min 0s</t>
-        </is>
-      </c>
-      <c r="G16" s="6" t="inlineStr">
-        <is>
-          <t>PAUSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>45647.76527777778</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>45647.76736111111</v>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>45647.76666666667</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>45647.76875</v>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Les leaders</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>KACW</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>45647.76875</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>45647.77083333334</v>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>Jolych</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>IFRI</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="n">
+        <v>45647.77083333334</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>45647.77534722222</v>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>Les leaders</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>45647.76041666666</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>45647.7625</v>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>Firesky</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>6min 30s</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>45647.77534722222</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>45647.77743055556</v>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>Némésis</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>KACW</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>45647.77743055556</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>45647.77951388889</v>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Les leaders</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Bee Light</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>45647.77951388889</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>45647.78159722222</v>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>IFRI</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>AI_MAU</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>45647.78159722222</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>45647.78368055556</v>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>Jolych</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G18" s="4" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>45647.7625</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>45647.76458333333</v>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>AI_MAU</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>Firesky</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>45647.76458333333</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>45647.76666666667</v>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>Bee Light</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>45647.78368055556</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>45647.78576388889</v>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>Némésis</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>45647.76666666667</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>45647.76875</v>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>KACW</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Les leaders</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>45647.76875</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>45647.77083333334</v>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>IFRI</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>Jolych</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9" t="n">
-        <v>45647.77083333334</v>
-      </c>
-      <c r="C23" s="9" t="n">
-        <v>45647.77534722222</v>
-      </c>
-      <c r="D23" s="8" t="inlineStr">
-        <is>
-          <t>Firesky</t>
-        </is>
-      </c>
-      <c r="E23" s="8" t="inlineStr">
-        <is>
-          <t>Les leaders</t>
-        </is>
-      </c>
-      <c r="F23" s="8" t="inlineStr">
-        <is>
-          <t>6min 30s</t>
-        </is>
-      </c>
-      <c r="G23" s="8" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>45647.77534722222</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>45647.77743055556</v>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>KACW</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>Némésis</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>45647.77743055556</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>45647.77951388889</v>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>Bee Light</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>Les leaders</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>45647.77951388889</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>45647.78159722222</v>
-      </c>
-      <c r="D26" s="4" t="inlineStr">
-        <is>
-          <t>AI_MAU</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>IFRI</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G26" s="4" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>45647.78159722222</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>45647.78368055556</v>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>Firesky</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>Jolych</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
@@ -1353,22 +1339,22 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>45647.78368055556</v>
+        <v>45647.78576388889</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>45647.78576388889</v>
+        <v>45647.78784722222</v>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>IFRI</t>
+          <t>KACW</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>Némésis</t>
+          <t>AI_MAU</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
@@ -1384,22 +1370,22 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>45647.78576388889</v>
+        <v>45647.78784722222</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>45647.78784722222</v>
+        <v>45647.78993055555</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>AI_MAU</t>
+          <t>Jolych</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>KACW</t>
+          <t>Bee Light</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
@@ -1408,37 +1394,6 @@
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="n">
-        <v>45647.78784722222</v>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>45647.78993055555</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>Bee Light</t>
-        </is>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>Jolych</t>
-        </is>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G30" s="4" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>

--- a/src/tournament/schedules/pool_A/schedule_retour.xlsx
+++ b/src/tournament/schedules/pool_A/schedule_retour.xlsx
@@ -39,7 +39,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -54,20 +54,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00BDD7EE"/>
         <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE699"/>
-        <bgColor rgb="00FFE699"/>
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
   </fills>
@@ -89,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -104,12 +98,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -536,10 +524,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>45647.72916666666</v>
+        <v>45647.89583333334</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>45647.73125</v>
+        <v>45647.89791666667</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
@@ -563,93 +551,93 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>45647.73125</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>45647.73333333333</v>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="n">
+        <v>45647.89791666667</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>45647.9</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>KACW</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Bee Light</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>45647.73333333333</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>45647.73541666667</v>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="B4" s="5" t="n">
+        <v>45647.9</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>45647.90208333333</v>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Les leaders</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Jolych</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>45647.73541666667</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>45647.7375</v>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="n">
+        <v>45647.90208333333</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>45647.90416666667</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>Némésis</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>AI_MAU</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
@@ -660,10 +648,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>45647.7375</v>
+        <v>45647.90416666667</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>45647.73958333334</v>
+        <v>45647.90625</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
@@ -687,93 +675,93 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>45647.73958333334</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>45647.74166666667</v>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="B7" s="3" t="n">
+        <v>45647.90625</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>45647.90833333333</v>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>KACW</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>IFRI</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>45647.74166666667</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>45647.74375</v>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="B8" s="5" t="n">
+        <v>45647.90833333333</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>45647.91041666667</v>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Les leaders</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>AI_MAU</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="n">
-        <v>45647.74375</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>45647.74583333333</v>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="B9" s="3" t="n">
+        <v>45647.91041666667</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>45647.9125</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>Jolych</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Némésis</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
@@ -784,10 +772,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>45647.74583333333</v>
+        <v>45647.9125</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>45647.74791666667</v>
+        <v>45647.91458333333</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
@@ -811,93 +799,93 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>45647.74791666667</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>45647.75</v>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="B11" s="3" t="n">
+        <v>45647.91458333333</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>45647.91666666666</v>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>IFRI</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Bee Light</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>45647.75</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>45647.75208333333</v>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="B12" s="5" t="n">
+        <v>45647.91666666666</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>45647.91875</v>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>Les leaders</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Némésis</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>45647.75208333333</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>45647.75416666667</v>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="B13" s="3" t="n">
+        <v>45647.91875</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>45647.92083333333</v>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>Jolych</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>AI_MAU</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
@@ -908,10 +896,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>45647.75416666667</v>
+        <v>45647.92083333333</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>45647.75625</v>
+        <v>45647.92291666667</v>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
@@ -935,93 +923,93 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>45647.75625</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>45647.75833333333</v>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="B15" s="3" t="n">
+        <v>45647.92291666667</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>45647.925</v>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>Bee Light</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>AI_MAU</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="n">
-        <v>45647.75833333333</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>45647.76041666666</v>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="B16" s="5" t="n">
+        <v>45647.925</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>45647.92708333334</v>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>Les leaders</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>IFRI</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="n">
-        <v>45647.76041666666</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>45647.7625</v>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="B17" s="3" t="n">
+        <v>45647.92708333334</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>45647.92916666667</v>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>Jolych</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>KACW</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
@@ -1032,10 +1020,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>45647.7625</v>
+        <v>45647.92916666667</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>45647.76458333333</v>
+        <v>45647.93125</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
@@ -1059,217 +1047,217 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="n">
-        <v>45647.76458333333</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>45647.76666666667</v>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="B19" s="3" t="n">
+        <v>45647.93125</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>45647.93333333333</v>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>Némésis</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>Bee Light</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="n">
-        <v>45647.76666666667</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>45647.76875</v>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="B20" s="5" t="n">
+        <v>45647.93333333333</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>45647.93541666667</v>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>Les leaders</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>KACW</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>45647.76875</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>45647.77083333334</v>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="B21" s="3" t="n">
+        <v>45647.93541666667</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>45647.9375</v>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>Jolych</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>IFRI</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="n">
-        <v>45647.77083333334</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>45647.77534722222</v>
-      </c>
-      <c r="D22" s="6" t="inlineStr">
+      <c r="B22" s="5" t="n">
+        <v>45647.9375</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>45647.93958333333</v>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>Les leaders</t>
         </is>
       </c>
-      <c r="E22" s="6" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>Firesky</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>6min 30s</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>45647.77534722222</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>45647.77743055556</v>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="B23" s="3" t="n">
+        <v>45647.93958333333</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>45647.94166666667</v>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>Némésis</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>KACW</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="n">
-        <v>45647.77743055556</v>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>45647.77951388889</v>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="B24" s="5" t="n">
+        <v>45647.94166666667</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>45647.94375</v>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>Les leaders</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>Bee Light</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="n">
-        <v>45647.77951388889</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>45647.78159722222</v>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="n">
+        <v>45647.94375</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>45647.94583333333</v>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>IFRI</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>AI_MAU</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
@@ -1280,10 +1268,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>45647.78159722222</v>
+        <v>45647.94583333333</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>45647.78368055556</v>
+        <v>45647.94791666666</v>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
@@ -1307,93 +1295,93 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="n">
-        <v>45647.78368055556</v>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>45647.78576388889</v>
-      </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="B27" s="3" t="n">
+        <v>45647.94791666666</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>45647.95</v>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>Némésis</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>IFRI</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="n">
-        <v>45647.78576388889</v>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>45647.78784722222</v>
-      </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="B28" s="3" t="n">
+        <v>45647.95</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>45647.95208333333</v>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>KACW</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>AI_MAU</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="n">
-        <v>45647.78784722222</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>45647.78993055555</v>
-      </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="B29" s="3" t="n">
+        <v>45647.95208333333</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>45647.95416666667</v>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>Jolych</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>Bee Light</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>3min 0s</t>
-        </is>
-      </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>3min 0s</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>

--- a/src/tournament/schedules/pool_A/schedule_retour.xlsx
+++ b/src/tournament/schedules/pool_A/schedule_retour.xlsx
@@ -32,6 +32,7 @@
       <b val="1"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
@@ -39,7 +40,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -48,20 +49,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="00FFF8DC"/>
+        <bgColor rgb="00FFF8DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00996515"/>
+        <bgColor rgb="00996515"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
+        <fgColor rgb="00FFE5B4"/>
+        <bgColor rgb="00FFE5B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
       </patternFill>
     </fill>
   </fills>
@@ -85,19 +92,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -478,44 +485,44 @@
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>round</t>
+          <t>Round</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>start_time</t>
+          <t>Début</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>end_time</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>team1</t>
+          <t>Équipe 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>team2</t>
+          <t>Équipe 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>duration</t>
+          <t>Durée</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>phase</t>
+          <t>Phase</t>
         </is>
       </c>
     </row>
